--- a/biology/Biochimie/Biochimica_et_Biophysica_Acta/Biochimica_et_Biophysica_Acta.xlsx
+++ b/biology/Biochimie/Biochimica_et_Biophysica_Acta/Biochimica_et_Biophysica_Acta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Biochimica et Biophysica Acta (abrégé en Biochim. Biophys. Acta ou BBA) est une revue scientifique à comité de lecture qui publie des articles de recherches originales concernant la biochimie et la biophysique.
@@ -512,40 +524,42 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Au cours de son histoire, le journal s'est divisé en différentes sections :
 Biochimica et Biophysica Acta, 1947-1963  (ISSN 0006-3002)
 1re section :
-BBA - General Subjects, 1964-en cours, facteur d'impact 4,381 en 2014  (ISSN 0304-4165)[1]
+BBA - General Subjects, 1964-en cours, facteur d'impact 4,381 en 2014  (ISSN 0304-4165)
 2e et 3e sections :
-BBA - Specialized Section on Biophysical Subjects, 1964,  (ISSN 0926-6577)[2]
-BBA - Biophysics including Photosynthesis, 1964-1966,  (ISSN 0926-6585)[3]
-BBA - Reviews on Bioenergetics, 1973-1987,  (ISSN 0304-4173)[4]
-BBA - Bioenergetics, 1967-en cours, facteur d'impact 5,353 en 2014  (ISSN 0005-2728)[5]
-BBA - Biomembranes, 1967-en cours, facteur d'impact 3,836 en 2014  (ISSN 0005-2736)[6]
+BBA - Specialized Section on Biophysical Subjects, 1964,  (ISSN 0926-6577)
+BBA - Biophysics including Photosynthesis, 1964-1966,  (ISSN 0926-6585)
+BBA - Reviews on Bioenergetics, 1973-1987,  (ISSN 0304-4173)
+BBA - Bioenergetics, 1967-en cours, facteur d'impact 5,353 en 2014  (ISSN 0005-2728)
+BBA - Biomembranes, 1967-en cours, facteur d'impact 3,836 en 2014  (ISSN 0005-2736)
 4e section :
-BBA - Specialized Section on Nucleic Acids and Related Subjects, 1962-1964,  (ISSN 0926-6550)[7]
-BBA - Nucleic Acids and Protein Synthesis, 1963-1981,  (ISSN 0005-2787)[8]
-BBA - Gene Structure and Expression, 1982-2007,  (ISSN 0167-4781)[9]
-BBA - Gene Regulatory Mechanisms, 2008-en cours, facteur d'impact 6,332 en 2014   (ISSN 1874-9399)[10]
+BBA - Specialized Section on Nucleic Acids and Related Subjects, 1962-1964,  (ISSN 0926-6550)
+BBA - Nucleic Acids and Protein Synthesis, 1963-1981,  (ISSN 0005-2787)
+BBA - Gene Structure and Expression, 1982-2007,  (ISSN 0167-4781)
+BBA - Gene Regulatory Mechanisms, 2008-en cours, facteur d'impact 6,332 en 2014   (ISSN 1874-9399)
 5e section :
-BBA - Molecular Basis of Disease, 1990-en cours, facteur d'impact 4,882 en 2014   (ISSN 0925-4439)[11]
+BBA - Molecular Basis of Disease, 1990-en cours, facteur d'impact 4,882 en 2014   (ISSN 0925-4439)
 6e section :
-BBA - Specialized Section on Lipids and Related Subjects, 1963-1964,  (ISSN 0926-6542)[12]
-BBA - Lipids and Lipid Metabolism, 1965-1998,  (ISSN 0005-2760)[13]
-BBA - Molecular and Cell Biology of Lipids, 1998-en cours, facteur d'impact 5,162 en 2014   (ISSN 1388-1981)[14]
+BBA - Specialized Section on Lipids and Related Subjects, 1963-1964,  (ISSN 0926-6542)
+BBA - Lipids and Lipid Metabolism, 1965-1998,  (ISSN 0005-2760)
+BBA - Molecular and Cell Biology of Lipids, 1998-en cours, facteur d'impact 5,162 en 2014   (ISSN 1388-1981)
 7e section :
-BBA - Molecular Cell Research, 1982-en cours, facteur d'impact 5,019 en 2014   (ISSN 0167-4889)[15]
+BBA - Molecular Cell Research, 1982-en cours, facteur d'impact 5,019 en 2014   (ISSN 0167-4889)
 8e section :
-BBA - Specialized Section on Enzymological Subjects, 1963-1964,  (ISSN 0926-6569)[16]
-BBA - Enzymology and Biological Oxidation, 1965-1966,  (ISSN 0926-6593)[17]
-BBA - Enzymology, 1967-1981,  (ISSN 0005-2744)[18]
-BBA - Protein Structure, 1967-1981,  (ISSN 0005-2795)[19]
-BBA - Protein Structure and Molecular Enzymology, 1982-2002,  (ISSN 0167-4838)[20]
-BBA - Proteins and Proteomics, 2002-en cours, facteur d'impact 2,747 en 2014   (ISSN 1570-9639)[21]
+BBA - Specialized Section on Enzymological Subjects, 1963-1964,  (ISSN 0926-6569)
+BBA - Enzymology and Biological Oxidation, 1965-1966,  (ISSN 0926-6593)
+BBA - Enzymology, 1967-1981,  (ISSN 0005-2744)
+BBA - Protein Structure, 1967-1981,  (ISSN 0005-2795)
+BBA - Protein Structure and Molecular Enzymology, 1982-2002,  (ISSN 0167-4838)
+BBA - Proteins and Proteomics, 2002-en cours, facteur d'impact 2,747 en 2014   (ISSN 1570-9639)
 9e section :
-BBA - Reviews on Cancer, 1974-en cours, facteur d'impact 7,845 en 2014   (ISSN 0304-419X)[22]</t>
+BBA - Reviews on Cancer, 1974-en cours, facteur d'impact 7,845 en 2014   (ISSN 0304-419X)</t>
         </is>
       </c>
     </row>
